--- a/biology/Zoologie/Chironectes_minimus/Chironectes_minimus.xlsx
+++ b/biology/Zoologie/Chironectes_minimus/Chironectes_minimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opossum aquatique, Sarigue d’eau
 Le genre  Chironectes est un genre monospécifique d'opossums d'Amérique (les Didelphidés). 
-Il ne comprend qu'une seule espèce : Chironectes minimus, nommée Opossum aquatique, Sarigue d’eau[1] ou Sarigue aquatique ou encore Yapok[2]. L'opossum aquatique est le seul représentant des Marsupiaux à avoir adopté des mœurs aquatiques et à avoir les pattes palmées. Il est caractérisé par la coloration noire et blanche de son fin pelage.
+Il ne comprend qu'une seule espèce : Chironectes minimus, nommée Opossum aquatique, Sarigue d’eau ou Sarigue aquatique ou encore Yapok. L'opossum aquatique est le seul représentant des Marsupiaux à avoir adopté des mœurs aquatiques et à avoir les pattes palmées. Il est caractérisé par la coloration noire et blanche de son fin pelage.
 Synonyme : Chironectes variegatus (Rafinesque, 1814)
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par son allure générale, le yapok ressemble à un rongeur de grande taille. Il a les pattes postérieures palmées, ce qui lui permet de nager rapidement en surface ou en plongée. Discret et peu commun, le yapok reste une espèce méconnue. Ses habitats de prédilection sont les petits cours d'eau forestiers et les torrents de montagne du Mexique jusqu'en Argentine septentrionale. Il quitte rarement l'eau, bien qu'il soit parfaitement apte à grimper, ceci d'autant mieux que sa queue est préhensile comme celle des autres opossums. Ses évolutions aquatiques égalent en grâce celles de la loutre. Cet animal strictement nocturne creuse des terriers dans le sol meuble de la berge. Il lui arrive aussi d'aménager des nids de feuilles et de mousse parmi les racines et les amas de bois, dans lesquels il se repose durant le jour. On ne sait rien de sa reproduction. Des femelles accompagnées de leurs petits qui nageaient à leur suite ont été observées au Brésil. La mère possède une poche marsupiale sous le ventre et peut la fermer entièrement quand elle plonge, par la contraction d'un muscle particulier, le sphincter. Ainsi, lorsqu'ils sont encore minuscules, les petits se trouvent-ils au sec, même en plongée. Le mâle possède une poche scrotale, caractéristique presque unique chez les marsupiaux (partagée avec le Thylacine). 
 Le yapock est carnivore et se nourrit de poissons et de petits crustacés d'eau douce. Lorsqu'il a capturé une proie, il s'assied sur une pierre pour la dévorer, en la maintenant entre ses « mains » à la manière d'un écureuil.
@@ -547,7 +561,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle yapok a une période de gestation de 190 jours. Elle met bas une portée de deux à cinq petits. La maturité sexuelle est atteinte à l'âge de dix mois.
 </t>
@@ -578,7 +594,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les yapocks sont parfois les proies des caïmans ou des poissons carnassiers. 
 </t>
@@ -609,9 +627,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (22 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (22 mai 2010) :
 sous-espèce Chironectes minimus argyrodytes
 sous-espèce Chironectes minimus langsdorffi
 sous-espèce Chironectes minimus minimus
